--- a/biology/Zoologie/Autarchoglossa/Autarchoglossa.xlsx
+++ b/biology/Zoologie/Autarchoglossa/Autarchoglossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Autarchoglossa sont un infra-ordre de Squamates qui regroupent beaucoup de lézards, les varans, les orvets et les serpents de verre. Ils partagent le fait d'avoir le corps recouvert d'écailles et de muer. 
 Ils ont généralement quatre pattes, des oreilles à tympan apparent (sans conduit auditif externe) et des paupières mobiles. Pourtant, les orvets et les serpents de verre n'ont pas de pattes apparentes, mais on en retrouve dans leur squelette au niveau embryonnaire. Ce ne sont pas des serpents, car à la différence de ceux-ci, ils ont des paupières, des oreilles externes et une double rangée d'écailles ventrales. De même les orvets, comme beaucoup d'autres lézards, peuvent se briser la queue dans un mécanisme de défense et de diversion (autotomie).
